--- a/Source/Các thiết bị/Datasheet.xlsx
+++ b/Source/Các thiết bị/Datasheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AF1C22-A744-4096-90A3-1C2B185F6DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MK5343" sheetId="1" r:id="rId1"/>
@@ -23,26 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
-  <si>
-    <t>Magnetic cylinder sensor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>Số ngõ ra</t>
   </si>
@@ -329,7 +316,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -514,7 +501,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -528,12 +514,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -543,9 +523,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -553,6 +530,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -839,108 +826,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="3:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="16" t="s">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="3:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="17" t="s">
+    </row>
+    <row r="5" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="3:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="16" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="3:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="3"/>
-      <c r="D6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="3"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="3:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="4"/>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="3"/>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="3:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="3"/>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="3:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -952,90 +937,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:D12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="10" t="s">
+    <row r="3" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="10" t="s">
+    <row r="7" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="10" t="s">
+    <row r="9" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="11" t="s">
+    <row r="10" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="10" t="s">
+    <row r="11" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="3:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:D3"/>
@@ -1046,88 +1031,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E9:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="10" t="s">
+    <row r="9" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="11" t="s">
+    <row r="12" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="10" t="s">
+    <row r="13" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="11" t="s">
+    <row r="14" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F14" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="11" t="s">
+    <row r="16" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="10" t="s">
+    <row r="17" spans="5:6" ht="59.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="5:6" ht="59.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="5:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E9:F9"/>
@@ -1138,102 +1123,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D2:E13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="18" t="s">
+    <row r="2" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="4:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="13" t="s">
+    </row>
+    <row r="11" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="4:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="11" t="s">
+    </row>
+    <row r="12" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="4:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="13" spans="4:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1241,101 +1226,101 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C2:D13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="10" t="s">
+    <row r="2" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="11" t="s">
+    <row r="6" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="10" t="s">
+    <row r="8" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="11" t="s">
+    <row r="9" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="19" t="s">
+    <row r="10" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="20"/>
+      <c r="D10" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="19"/>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="11" t="s">
+    <row r="12" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="3:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="3:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C9:C10"/>
@@ -1345,162 +1330,162 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="E8:F17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="10" t="s">
+    <row r="8" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="5:6" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="12" t="s">
+    <row r="11" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" ht="37.200000000000003" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" ht="37.200000000000003" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="E10:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="8" t="s">
+    <row r="10" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="9" t="s">
+    </row>
+    <row r="12" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F13" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="9" t="s">
+    <row r="15" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="9" t="s">
+    <row r="16" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="9" t="s">
+    <row r="17" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="5:6" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
     </row>

--- a/Source/Các thiết bị/Datasheet.xlsx
+++ b/Source/Các thiết bị/Datasheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AF1C22-A744-4096-90A3-1C2B185F6DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1384984F-EC16-4867-A1C8-9749208357CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MK5343" sheetId="1" r:id="rId1"/>
@@ -13,158 +13,56 @@
     <sheet name="PZ-G101P" sheetId="3" r:id="rId3"/>
     <sheet name="PY-2-F-010-S01M" sheetId="4" r:id="rId4"/>
     <sheet name="ISE20A-T-01-JA2" sheetId="5" r:id="rId5"/>
-    <sheet name="EIL580-SC10.5LN.01000.A" sheetId="6" r:id="rId6"/>
-    <sheet name="DW-AS-603-M8" sheetId="7" r:id="rId7"/>
+    <sheet name="DW-AS-603-M8" sheetId="7" r:id="rId6"/>
+    <sheet name="EIL580-SC10.5LN.01000.A" sheetId="6" r:id="rId7"/>
+    <sheet name="IR1020-01bg1-A" sheetId="8" r:id="rId8"/>
+    <sheet name="4GN50RH" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'MK5343'!$D$3:$E$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
-  <si>
-    <t>Số ngõ ra</t>
-  </si>
-  <si>
-    <t>1 digital output (NO)</t>
-  </si>
-  <si>
-    <t>Thiết kế ngõ ra</t>
-  </si>
-  <si>
-    <t>Điện áp hoạt động</t>
-  </si>
-  <si>
-    <t>10 - 30 VDC</t>
-  </si>
-  <si>
-    <t>Dòng điện tiêu thụ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="158">
+  <si>
+    <t>Magnetic cylinder sensor</t>
   </si>
   <si>
     <t>Cylinder sensor</t>
   </si>
   <si>
-    <t>10 m/s</t>
-  </si>
-  <si>
-    <t>Thời gian đáp ứng</t>
-  </si>
-  <si>
     <t> 500 µs</t>
   </si>
   <si>
-    <t>Khoảng cách phát hiện</t>
-  </si>
-  <si>
-    <t>200 mm</t>
-  </si>
-  <si>
-    <t>NPN</t>
-  </si>
-  <si>
     <t> 0.1 µA</t>
   </si>
   <si>
-    <t>Độ phân giải</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infinite </t>
-  </si>
-  <si>
-    <t>Tốc độ chuyển động tối đa</t>
-  </si>
-  <si>
-    <t>4N</t>
-  </si>
-  <si>
-    <t>Điện trở</t>
-  </si>
-  <si>
-    <t>1 kOhms</t>
-  </si>
-  <si>
-    <t>Chiều dài đầu dò</t>
-  </si>
-  <si>
-    <t>32 mm</t>
-  </si>
-  <si>
     <t>&lt;70 mA</t>
   </si>
   <si>
-    <t>Độ phân giải (Xung/vòng)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 100 - 5000 xung</t>
   </si>
   <si>
-    <t>Duty circle</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 40% - 60%</t>
-  </si>
-  <si>
-    <t>Tần số ngõ ra đáp ứng tối đa</t>
-  </si>
-  <si>
-    <t>300 kHz(TTL)
-160 kHz(HTL)</t>
-  </si>
-  <si>
-    <t>Tốc độ tối đa cho phép</t>
-  </si>
-  <si>
-    <t>Độ lệch pha ngõ ra</t>
-  </si>
-  <si>
-    <t>PNP/PNP</t>
-  </si>
-  <si>
-    <t>&lt; 200 mA</t>
-  </si>
-  <si>
-    <t>32 ms</t>
-  </si>
-  <si>
-    <t>1,5 mm</t>
-  </si>
-  <si>
-    <t>Độ chính xác</t>
-  </si>
-  <si>
-    <t>0,07 mm</t>
-  </si>
-  <si>
-    <t>1 ngõ ra analog</t>
-  </si>
-  <si>
-    <t>Lực tối đa chịu được</t>
-  </si>
-  <si>
-    <t>A+, B+, R+, A-, B-, R-</t>
-  </si>
-  <si>
-    <t>5VDC ±  5%
-8 - 30 VDC
-4,75 - 30VDC</t>
-  </si>
-  <si>
-    <t>90 ± 10% giữa A và B</t>
-  </si>
-  <si>
-    <t>≤ 14 VDC</t>
-  </si>
-  <si>
-    <t>6000 rpm( +20℃, IP 67)
-12000 rpm(+20℃, IP 65)</t>
   </si>
   <si>
     <t xml:space="preserve"> Số ngõ ra</t>
@@ -311,6 +209,346 @@
   </si>
   <si>
     <t xml:space="preserve"> kPa, kgf.cm², bar, psi, mmHg,...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PNP/PNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt; 200 mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,5 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,07 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Độ chính xác</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Độ phân giải</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tốc độ chuyển động tối đa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lực tối đa chịu được</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Điện trở</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chiều dài đầu dò</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 ngõ ra analog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ≤ 14 VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 kOhms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Infinite </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Độ phân giải (Xung/vòng)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Duty circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tần số ngõ ra đáp ứng tối đa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tốc độ tối đa cho phép</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Độ lệch pha ngõ ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A+, B+, R+, A-, B-, R-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5VDC ±  5%
+ 8 - 30 VDC
+ 4,75 - 30VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 300 kHz(TTL)
+ 160 kHz(HTL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6000 rpm( +20℃, IP 67)
+ 12000 rpm(+20℃, IP 65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90 ± 10% giữa A và B</t>
+  </si>
+  <si>
+    <t>Max. supply pressure MAX. 1.0MPa</t>
+  </si>
+  <si>
+    <t>Min. supply pressure Setting pressure + 0.05MPa</t>
+  </si>
+  <si>
+    <t>Setting Pressure 0.01~0.8MPa</t>
+  </si>
+  <si>
+    <t>Air consumption 4.4L/min(ANR) or less (at supply pressure of 1.0MPa)</t>
+  </si>
+  <si>
+    <t>Setting sensitivity: Within 0.2% F.S. (Note4)</t>
+  </si>
+  <si>
+    <t>Repeatability Within ±0.5% F.S. (Note4)</t>
+  </si>
+  <si>
+    <t>Port size Rc1/8</t>
+  </si>
+  <si>
+    <t>Port size of pressure gauge Rc1/8 [2 places]</t>
+  </si>
+  <si>
+    <t>Flow Direction: Left To Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áp suất nguồn tối đa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0MPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áp suất nguồn tối thiểu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áp suất cài đặt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.01~0.8MPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Độ nhạy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2% F.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ±0.5% F.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Khả năng lặp lại</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mức tiêu thụ khí nén</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rc1/8 [2 cổng]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chiều dòng khí</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cổng kết nối </t>
+  </si>
+  <si>
+    <t>Tỉ số truyền động</t>
+  </si>
+  <si>
+    <t>Kích thước khung hộp số</t>
+  </si>
+  <si>
+    <t>80mm</t>
+  </si>
+  <si>
+    <t>Hollow Shaft Type: Loại trục rỗng</t>
+  </si>
+  <si>
+    <t>Phân loại</t>
+  </si>
+  <si>
+    <t>Loại trục rỗng</t>
+  </si>
+  <si>
+    <t>Momen xoắn cực đại</t>
+  </si>
+  <si>
+    <t>8N*m</t>
+  </si>
+  <si>
+    <t>100N</t>
+  </si>
+  <si>
+    <t>Permissible Overhung Load (Tải trọng treo cho phép)</t>
+  </si>
+  <si>
+    <t>Permissible Thrust Load(Tải trọng đẩy cho phép)</t>
+  </si>
+  <si>
+    <t>250N (10mm from Shaft End)
+220N(20 from Shaft End)</t>
+  </si>
+  <si>
+    <t>Hiệu suất truyền động của bánh răng</t>
+  </si>
+  <si>
+    <t>Khởi động: 54%
+Định mức: 60%</t>
+  </si>
+  <si>
+    <t>quán tính tải cho phép</t>
+  </si>
+  <si>
+    <t>775×10^-4kg･m^2</t>
+  </si>
+  <si>
+    <t>Hướng quay</t>
+  </si>
+  <si>
+    <t>Ngược chiều với trục động cơ</t>
+  </si>
+  <si>
+    <t>nguồn áp</t>
+  </si>
+  <si>
+    <t>220/230 VAC</t>
+  </si>
+  <si>
+    <t>FrameSize</t>
+  </si>
+  <si>
+    <t>80 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loại trục rỗng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 250N (10mm from Shaft End)
+ 220N (20mm from Shaft End)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ngược chiều với trục động cơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8-32 r/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50/60 Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25W</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Y72</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8N×m</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 0.31×10^(-4) kg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF07B1CE"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF07B1CE"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m²</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nguồn áp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tỉ số truyền động</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Momen xoắn cực đại</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phân loại</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tải trọng treo cho phép</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tải trọng đẩy cho phép</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quán tính tải cho phép</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hướng quay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tốc độ quay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tần số</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Công suất đầu ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kết nối ngõ ra PLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loại Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4 lít/phút (ANR) hoặc ít hơn 
+ (đối với nguồn khí 1.0MPa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trái --&gt; phải</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05 MPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220/230 VAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.37A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cảm ứng, trục rỗng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Y40, 41, 42, 43</t>
   </si>
 </sst>
 </file>
@@ -329,22 +567,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF07B1CE"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -382,6 +604,19 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF07B1CE"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -492,7 +727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -505,40 +740,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F13"/>
+  <dimension ref="C2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,82 +1098,80 @@
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
     <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>52</v>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>53</v>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>54</v>
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3"/>
-      <c r="D6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>67</v>
+      <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="3"/>
-      <c r="D7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>66</v>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>65</v>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="3"/>
-      <c r="D9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>64</v>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
-      <c r="D10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>63</v>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -940,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:D12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D11"/>
+    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,73 +1208,73 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="19"/>
+      <c r="C3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>52</v>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>68</v>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>69</v>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>67</v>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>70</v>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>71</v>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>72</v>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>73</v>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="3:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1034,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E9:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,71 +1302,71 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>52</v>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>53</v>
+      <c r="E11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>54</v>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>55</v>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>9</v>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>56</v>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>57</v>
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="5:6" ht="59.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>58</v>
+      <c r="E17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="5:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1126,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D2:E13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,83 +1396,83 @@
   <sheetData>
     <row r="2" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>37</v>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>17</v>
+      <c r="D10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
+      <c r="D11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="4:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>21</v>
+      <c r="D12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="4:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1230,7 +1487,7 @@
   <dimension ref="C2:D13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,81 +1500,81 @@
   <sheetData>
     <row r="2" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>74</v>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>76</v>
+      <c r="C4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="27"/>
+      <c r="D10" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="20"/>
-      <c r="D10" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>90</v>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="3:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>91</v>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1330,96 +1587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="E8:F17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" ht="37.200000000000003" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6" ht="37.200000000000003" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="E10:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,60 +1601,60 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E11" s="7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E12" s="8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E13" s="7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E14" s="8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E15" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E16" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E17" s="7" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="5:6" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1493,4 +1665,483 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="E8:F17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="35.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" ht="55.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" ht="37.200000000000003" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" ht="37.200000000000003" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC3A963-2326-4195-BD30-797944A7A8F6}">
+  <dimension ref="B6:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="27.77734375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:8" s="18" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="18" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="18" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="18" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="18" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="18" customFormat="1" ht="46.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="18" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="18" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1CABFF-5194-42E9-8906-524F3693D25F}">
+  <dimension ref="B6:L21"/>
+  <sheetViews>
+    <sheetView topLeftCell="G6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="38.33203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="22">
+        <v>50</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="9">
+        <v>50</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="45.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>